--- a/Excel/BehaviorTreeConfig.xlsx
+++ b/Excel/BehaviorTreeConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DukeChiangGit\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GameProject\MKGMobaBasedOnET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A05032-3EF3-4DA4-B87D-5A43DED6C044}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6323D430-498F-44B8-87D7-79FAE7574E71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="4650" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BehaviorTreeConfig" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,6 @@
   </si>
   <si>
     <t>追逐主角直到主角在TargetDistance范围内出现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{\"MinPatrolRange\":2,\"MaxPatrolRange\":4.2,\"WaitTime\":2000}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -138,6 +134,10 @@
   </si>
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{\"MinPatrolRange\":266,\"MaxPatrolRange\":4.2,\"WaitTime\":2000}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,6 +229,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -535,26 +538,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.15234375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.84375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="5" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="5" width="68.23046875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.61328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="68.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="87" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -571,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
@@ -588,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
@@ -605,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4">
         <v>1001</v>
       </c>
@@ -622,7 +627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>1002</v>
       </c>
@@ -633,18 +638,18 @@
         <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="7">
         <v>1003</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>21</v>
@@ -653,10 +658,10 @@
         <v>23</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="7">
         <v>1004</v>
       </c>
@@ -670,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
         <v>1005</v>
       </c>
@@ -681,7 +686,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>20</v>
